--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:03.057268</t>
+          <t>2025-07-30T15:59:49.117570</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>def fibonacci_2(n):
+          <t xml:space="preserve">def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -560,7 +560,9 @@
         return [0, 1]
     else:
         fib = fibonacci_2(n - 1)
-        return fib</t>
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -576,7 +578,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:05.489594</t>
+          <t>2025-07-30T15:59:52.429424</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -619,7 +621,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>def fibonacci_2(n):
+          <t xml:space="preserve">def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -628,7 +630,9 @@
         return [0, 1]
     else:
         fib = fibonacci_2(n - 1)
-        return fib</t>
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -644,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:06.722579</t>
+          <t>2025-07-30T15:59:53.897991</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -687,7 +691,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>def fibonacci_2(n):
+          <t xml:space="preserve">def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -696,7 +700,9 @@
         return [0, 1]
     else:
         fib = fibonacci_2(n - 1)
-        return fib</t>
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -712,7 +718,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:08.158658</t>
+          <t>2025-07-30T15:59:55.466727</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -755,7 +761,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>def fibonacci_2(n):
+          <t xml:space="preserve">def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -764,7 +770,9 @@
         return [0, 1]
     else:
         fib = fibonacci_2(n - 1)
-        return fib</t>
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -780,7 +788,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:09.433289</t>
+          <t>2025-07-30T15:59:56.706096</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -823,7 +831,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>def fibonacci_2(n):
+          <t xml:space="preserve">def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -832,7 +840,9 @@
         return [0, 1]
     else:
         fib = fibonacci_2(n - 1)
-        return fib</t>
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -848,7 +858,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:10.321673</t>
+          <t>2025-07-30T15:59:57.863007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -907,7 +917,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:11.792766</t>
+          <t>2025-07-30T15:59:58.856077</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -932,65 +942,6 @@
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3():
-    fib_list = [0, 1]
-    for i in range(1, 2):
-        fib_list.append(fib_list[i] + fib_list[i-1])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3():
-    fib_list = [0, 1]
-    for i in range(1, 2):
-        fib_list.append(fib_list[i] + fib_list[i-1])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>fibonacci_3-3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-07-30T15:13:13.517472</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -1001,7 +952,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -1012,44 +963,44 @@
 ```</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>fibonacci_3-4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-30T15:13:14.659941</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fibonacci_3-3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-30T15:59:59.971336</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -1060,7 +1011,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -1071,44 +1022,44 @@
 ```</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>fibonacci_3-5</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-07-30T15:13:15.583268</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>fibonacci_3-4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:00:00.889742</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -1119,7 +1070,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -1130,6 +1081,65 @@
 ```</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fibonacci_3-5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:00:02.044615</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    for i in range(3, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    for i in range(3, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1143,7 +1153,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:16.882598</t>
+          <t>2025-07-30T16:00:03.180758</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1202,7 +1212,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:17.755987</t>
+          <t>2025-07-30T16:00:04.082362</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1227,6 +1237,183 @@
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:00:05.053150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:00:06.003406</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:00:06.911508</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -1237,7 +1424,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -1248,183 +1435,6 @@
 ```</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>fibonacci_4-3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-07-30T15:13:19.803520</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>fibonacci_4-4</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-07-30T15:13:21.541075</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>fibonacci_4-5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-07-30T15:13:22.498945</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1438,7 +1448,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:25.056730</t>
+          <t>2025-07-30T16:00:08.772442</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1477,13 +1487,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>def fibonacci_5(n):
+          <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
         return n
     else:
         return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]</t>
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1499,7 +1510,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:26.649690</t>
+          <t>2025-07-30T16:00:09.776234</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1538,13 +1549,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>def fibonacci_5(n):
+          <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
         return n
     else:
         return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]</t>
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1560,7 +1572,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:27.668433</t>
+          <t>2025-07-30T16:00:11.699069</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1599,13 +1611,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>def fibonacci_5(n):
+          <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
         return n
     else:
         return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]</t>
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1621,7 +1634,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:28.905770</t>
+          <t>2025-07-30T16:00:13.321364</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1660,13 +1673,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>def fibonacci_5(n):
+          <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
         return n
     else:
         return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]</t>
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1682,7 +1696,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:30.039642</t>
+          <t>2025-07-30T16:00:14.256607</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1721,13 +1735,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>def fibonacci_5(n):
+          <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
         return n
     else:
         return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]</t>
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1743,7 +1758,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:31.266636</t>
+          <t>2025-07-30T16:00:15.753170</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1802,7 +1817,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:32.679707</t>
+          <t>2025-07-30T16:00:16.654662</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1861,7 +1876,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:33.637043</t>
+          <t>2025-07-30T16:00:17.683619</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1920,7 +1935,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:34.815457</t>
+          <t>2025-07-30T16:00:19.095677</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1979,7 +1994,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-07-30T15:13:36.767555</t>
+          <t>2025-07-30T16:00:20.512820</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2010,7 +2025,7 @@
     fib_list = [0, 1]
     while len(fib_list) &lt; n:
         fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
+    return fib_list[:n]
 ```</t>
         </is>
       </c>
@@ -2021,7 +2036,7 @@
     fib_list = [0, 1]
     while len(fib_list) &lt; n:
         fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
+    return fib_list[:n]
 ```</t>
         </is>
       </c>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,6 +2045,1579 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fibonacci_2-1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:34.768048</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_sequence = fibonacci_2(n - 1)
+        fib_sequence.append(fib_sequence[-1] + fib_sequence[-2])
+        return fib_sequence
+```</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_sequence = fibonacci_2(n - 1)
+        fib_sequence.append(fib_sequence[-1] + fib_sequence[-2])
+        return fib_sequence
+</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fibonacci_2-2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:36.928516</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>fibonacci_2-3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:38.100756</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+```</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fibonacci_2-4</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:39.674075</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fibonacci_2-5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:41.235849</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n-1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+```</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n-1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fibonacci_3-1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:43.290280</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = []
+    a, b = 0, 1
+    for _ in range(n):
+        fib_list.append(a)
+        a, b = b, a + b
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = []
+    a, b = 0, 1
+    for _ in range(n):
+        fib_list.append(a)
+        a, b = b, a + b
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fibonacci_3-2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:44.334586</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fibonacci_list = [0, 1, 1]
+    for i in range(3, n):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fibonacci_list = [0, 1, 1]
+    for i in range(3, n):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>fibonacci_3-3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:45.621324</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fib_list = [0, 1]
+    for i in range(1, 2):
+        fib_list.append(fib_list[i] + fib_list[i-1])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fib_list = [0, 1]
+    for i in range(1, 2):
+        fib_list.append(fib_list[i] + fib_list[i-1])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>fibonacci_3-4</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:47.508039</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    for i in range(3, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    for i in range(3, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>fibonacci_3-5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:48.428784</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_sequence = [0, 1, 1]
+    for i in range(3, n):
+        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2] + fib_sequence[i-3])
+    return fib_sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_sequence = [0, 1, 1]
+    for i in range(3, n):
+        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2] + fib_sequence[i-3])
+    return fib_sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>fibonacci_4-1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:51.154855</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fibonacci_4-2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:52.042249</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:52.987756</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    for i in range(2, 4):
+        next_num = fibonacci_list[i-1] + fibonacci_list[i-2]
+        fibonacci_list.append(next_num)
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    for i in range(2, 4):
+        next_num = fibonacci_list[i-1] + fibonacci_list[i-2]
+        fibonacci_list.append(next_num)
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:53.863779</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci = [0, 1]
+    for i in range(2, 4):
+        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci = [0, 1]
+    for i in range(2, 4):
+        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:54.744816</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>fibonacci_5-1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:55.997196</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_5(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+result = fibonacci_5(5)
+print(result)
+```</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_5(n):
+    if n &lt;= 1:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_5(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+result = fibonacci_5(5)
+print(result)
+</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>fibonacci_5-2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:57.443711</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>fibonacci_5-3</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:08:58.789255</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_5(n-1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+```</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_5(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_5(n-1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>fibonacci_5-4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:09:00.678303</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_5(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+print(fibonacci_5(5))
+```</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_5(n):
+    if n &lt;= 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_5(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+print(fibonacci_5(5))
+</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>fibonacci_5-5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:09:01.730225</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>fibonacci-1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:09:03.169409</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fibonacci_list = [0, 1]
+    for i in range(2, n):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fibonacci_list = [0, 1]
+    for i in range(2, n):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>fibonacci-2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:09:04.131325</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    result = []
+    a, b = 0, 1
+    for _ in range(n):
+        result.append(a)
+        a, b = b, a + b
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    result = []
+    a, b = 0, 1
+    for _ in range(n):
+        result.append(a)
+        a, b = b, a + b
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:09:05.134661</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:09:06.585064</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>fibonacci-5</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:09:07.803538</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:49.117570</t>
+          <t>2025-07-30T16:24:04.511319</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -543,7 +543,7 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib = fibonacci_2(n - 1)
+        fib = fibonacci_2(n-1)
         fib.append(fib[-1] + fib[-2])
         return fib
 ```</t>
@@ -559,7 +559,7 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib = fibonacci_2(n - 1)
+        fib = fibonacci_2(n-1)
         fib.append(fib[-1] + fib[-2])
         return fib
 </t>
@@ -578,7 +578,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:52.429424</t>
+          <t>2025-07-30T16:24:06.090495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:53.897991</t>
+          <t>2025-07-30T16:24:07.591182</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:55.466727</t>
+          <t>2025-07-30T16:24:08.748114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -753,7 +753,7 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib = fibonacci_2(n - 1)
+        fib = fibonacci_2(n-1)
         fib.append(fib[-1] + fib[-2])
         return fib
 ```</t>
@@ -769,7 +769,7 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib = fibonacci_2(n - 1)
+        fib = fibonacci_2(n-1)
         fib.append(fib[-1] + fib[-2])
         return fib
 </t>
@@ -788,7 +788,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:56.706096</t>
+          <t>2025-07-30T16:24:10.647482</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:57.863007</t>
+          <t>2025-07-30T16:24:12.081006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -888,8 +888,9 @@
 def fibonacci_3(n):
     fib_list = [0, 1, 1]
     for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+        next_fib = fib_list[-1] + fib_list[-2] + fib_list[-3]
+        fib_list.append(next_fib)
+    return fib_list[:n]
 ```</t>
         </is>
       </c>
@@ -899,8 +900,9 @@
 def fibonacci_3(n):
     fib_list = [0, 1, 1]
     for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+        next_fib = fib_list[-1] + fib_list[-2] + fib_list[-3]
+        fib_list.append(next_fib)
+    return fib_list[:n]
 ```</t>
         </is>
       </c>
@@ -917,7 +919,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:58.856077</t>
+          <t>2025-07-30T16:24:13.206306</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -947,8 +949,9 @@
 def fibonacci_3(n):
     fib_list = [0, 1, 1]
     for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+        next_num = fib_list[-1] + fib_list[-2] + fib_list[-3]
+        fib_list.append(next_num)
+    return fib_list[:n]
 ```</t>
         </is>
       </c>
@@ -958,8 +961,9 @@
 def fibonacci_3(n):
     fib_list = [0, 1, 1]
     for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+        next_num = fib_list[-1] + fib_list[-2] + fib_list[-3]
+        fib_list.append(next_num)
+    return fib_list[:n]
 ```</t>
         </is>
       </c>
@@ -976,7 +980,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-30T15:59:59.971336</t>
+          <t>2025-07-30T16:24:18.573785</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1006,8 +1010,8 @@
 def fibonacci_3(n):
     fib_list = [0, 1, 1]
     for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+        fib_list.append(fib_list[-1] + fib_list[-2] + fib_list[-3])
+    return fib_list[:n]
 ```</t>
         </is>
       </c>
@@ -1017,8 +1021,8 @@
 def fibonacci_3(n):
     fib_list = [0, 1, 1]
     for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+        fib_list.append(fib_list[-1] + fib_list[-2] + fib_list[-3])
+    return fib_list[:n]
 ```</t>
         </is>
       </c>
@@ -1035,7 +1039,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:00.889742</t>
+          <t>2025-07-30T16:24:19.918247</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1063,10 +1067,10 @@
         <is>
           <t>```python
 def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+    fib_series = [0, 1]
+    for i in range(2, n):
+        fib_series.append(fib_series[i-1] + fib_series[i-2])
+    return fib_series
 ```</t>
         </is>
       </c>
@@ -1074,10 +1078,10 @@
         <is>
           <t>```python
 def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+    fib_series = [0, 1]
+    for i in range(2, n):
+        fib_series.append(fib_series[i-1] + fib_series[i-2])
+    return fib_series
 ```</t>
         </is>
       </c>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:02.044615</t>
+          <t>2025-07-30T16:24:22.369699</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1121,10 +1125,12 @@
       <c r="H11" t="inlineStr">
         <is>
           <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
+def fibonacci_3():
+    n = 3
+    fib_list = [0, 1]
+    while n &gt; 0:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        n -= 1
     return fib_list
 ```</t>
         </is>
@@ -1132,10 +1138,12 @@
       <c r="I11" t="inlineStr">
         <is>
           <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
+def fibonacci_3():
+    n = 3
+    fib_list = [0, 1]
+    while n &gt; 0:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        n -= 1
     return fib_list
 ```</t>
         </is>
@@ -1153,7 +1161,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:03.180758</t>
+          <t>2025-07-30T16:24:24.007813</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1181,10 +1189,10 @@
         <is>
           <t>```python
 def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+    fibonacci = [0, 1]
+    while len(fibonacci) &lt; 4:
+        fibonacci.append(fibonacci[-1] + fibonacci[-2])
+    return fibonacci
 ```</t>
         </is>
       </c>
@@ -1192,10 +1200,10 @@
         <is>
           <t>```python
 def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
+    fibonacci = [0, 1]
+    while len(fibonacci) &lt; 4:
+        fibonacci.append(fibonacci[-1] + fibonacci[-2])
+    return fibonacci
 ```</t>
         </is>
       </c>
@@ -1212,7 +1220,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:04.082362</t>
+          <t>2025-07-30T16:24:25.190798</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1237,183 +1245,6 @@
         </is>
       </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>fibonacci_4-3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:05.053150</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>fibonacci_4-4</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:06.003406</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>fibonacci_4-5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:06.911508</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -1424,7 +1255,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -1435,6 +1266,185 @@
 ```</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:26.004580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci = [0, 1]
+    for i in range(2, 4):
+        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci = [0, 1]
+    for i in range(2, 4):
+        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:27.065037</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    while len(fib_list) &lt; 4:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    while len(fib_list) &lt; 4:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:28.126162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    while len(fib_list) &lt; 4:
+        next_num = fib_list[-1] + fib_list[-2]
+        fib_list.append(next_num)
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    while len(fib_list) &lt; 4:
+        next_num = fib_list[-1] + fib_list[-2]
+        fib_list.append(next_num)
+    return fib_list
+```</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1448,7 +1458,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:08.772442</t>
+          <t>2025-07-30T16:24:29.064881</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1473,6 +1483,137 @@
         </is>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2) if n &gt; 1 else 0
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2) if n &gt; 1 else 0
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fibonacci_5-2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:30.234705</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_sequence = fibonacci_5(n - 1)
+        fib_sequence.append(fib_sequence[-1] + fib_sequence[-2])
+        return fib_sequence
+print(fibonacci_5(5))
+```</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_5(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_sequence = fibonacci_5(n - 1)
+        fib_sequence.append(fib_sequence[-1] + fib_sequence[-2])
+        return fib_sequence
+print(fibonacci_5(5))
+</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fibonacci_5-3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:31.138333</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_5(n):
@@ -1485,7 +1626,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
@@ -1497,44 +1638,44 @@
 </t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>fibonacci_5-2</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:09.776234</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fibonacci_5-4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:32.275774</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_5(n):
@@ -1547,7 +1688,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
@@ -1559,44 +1700,44 @@
 </t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>fibonacci_5-3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:11.699069</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>fibonacci_5-5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:33.682539</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_5(n):
@@ -1609,7 +1750,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 1:
@@ -1621,130 +1762,6 @@
 </t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>fibonacci_5-4</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:13.321364</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]
-```</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>fibonacci_5-5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:14.256607</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]
-```</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1758,7 +1775,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:15.753170</t>
+          <t>2025-07-30T16:24:36.776402</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1817,7 +1834,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:16.654662</t>
+          <t>2025-07-30T16:24:37.944457</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1876,7 +1893,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-30T16:00:17.683619</t>
+          <t>2025-07-30T16:24:39.127200</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1901,6 +1918,65 @@
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:40.300268</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -1911,7 +1987,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -1922,121 +1998,62 @@
 ```</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>fibonacci-4</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:19.095677</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fibonacci-5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:41.257984</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
     fib_list = [0, 1]
     while len(fib_list) &lt; n:
         fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
     fib_list = [0, 1]
     while len(fib_list) &lt; n:
         fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>fibonacci-5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:00:20.512820</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
+    return fib_list
 ```</t>
         </is>
       </c>
@@ -2053,7 +2070,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:34.768048</t>
+          <t>2025-07-30T16:29:12.271018</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2088,9 +2105,9 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib_sequence = fibonacci_2(n - 1)
-        fib_sequence.append(fib_sequence[-1] + fib_sequence[-2])
-        return fib_sequence
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
 ```</t>
         </is>
       </c>
@@ -2104,9 +2121,9 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib_sequence = fibonacci_2(n - 1)
-        fib_sequence.append(fib_sequence[-1] + fib_sequence[-2])
-        return fib_sequence
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
 </t>
         </is>
       </c>
@@ -2123,7 +2140,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:36.928516</t>
+          <t>2025-07-30T16:29:13.529500</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2158,15 +2175,15 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib_list = fibonacci_2(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
 ```</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">def fibonacci_2(n):
+          <t>def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -2176,8 +2193,7 @@
     else:
         fib_list = fibonacci_2(n - 1)
         fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
-</t>
+        return fib_list</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -2193,7 +2209,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:38.100756</t>
+          <t>2025-07-30T16:29:15.155985</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2236,7 +2252,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">def fibonacci_2(n):
+          <t>def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -2244,10 +2260,9 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2263,7 +2278,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:39.674075</t>
+          <t>2025-07-30T16:29:16.318582</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2306,7 +2321,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">def fibonacci_2(n):
+          <t>def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -2316,8 +2331,7 @@
     else:
         fib_list = fibonacci_2(n - 1)
         fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
-</t>
+        return fib_list</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -2333,7 +2347,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:41.235849</t>
+          <t>2025-07-30T16:29:17.746489</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2368,15 +2382,15 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib = fibonacci_2(n-1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
 ```</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">def fibonacci_2(n):
+          <t>def fibonacci_2(n):
     if n &lt;= 0:
         return []
     elif n == 1:
@@ -2384,10 +2398,9 @@
     elif n == 2:
         return [0, 1]
     else:
-        fib = fibonacci_2(n-1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -2403,7 +2416,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:43.290280</t>
+          <t>2025-07-30T16:29:18.576939</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2428,6 +2441,65 @@
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fibonacci = [0, 1]
+    for i in range(1, 2):
+        fibonacci.append(fibonacci[i] + fibonacci[i-1])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fibonacci = [0, 1]
+    for i in range(1, 2):
+        fibonacci.append(fibonacci[i] + fibonacci[i-1])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fibonacci_3-2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:19.977503</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -2440,7 +2512,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -2453,65 +2525,6 @@
 ```</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>fibonacci_3-2</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:08:44.334586</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fibonacci_list = [0, 1, 1]
-    for i in range(3, n):
-        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
-    return fibonacci_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fibonacci_list = [0, 1, 1]
-    for i in range(3, n):
-        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
-    return fibonacci_list[:n]
-```</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -2525,7 +2538,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:45.621324</t>
+          <t>2025-07-30T16:29:20.801147</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2552,22 +2565,22 @@
       <c r="H34" t="inlineStr">
         <is>
           <t>```python
-def fibonacci_3():
-    fib_list = [0, 1]
-    for i in range(1, 2):
-        fib_list.append(fib_list[i] + fib_list[i-1])
-    return fib_list
+def fibonacci_3(n):
+    fib = [0, 1, 1]
+    for i in range(3, n):
+        fib.append(fib[i-1] + fib[i-2] + fib[i-3])
+    return fib[:n]
 ```</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>```python
-def fibonacci_3():
-    fib_list = [0, 1]
-    for i in range(1, 2):
-        fib_list.append(fib_list[i] + fib_list[i-1])
-    return fib_list
+def fibonacci_3(n):
+    fib = [0, 1, 1]
+    for i in range(3, n):
+        fib.append(fib[i-1] + fib[i-2] + fib[i-3])
+    return fib[:n]
 ```</t>
         </is>
       </c>
@@ -2584,7 +2597,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:47.508039</t>
+          <t>2025-07-30T16:29:21.786668</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2609,6 +2622,65 @@
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fibonacci_numbers = [0, 1]
+    for i in range(2, n):
+        fibonacci_numbers.append(fibonacci_numbers[i-1] + fibonacci_numbers[i-2])
+    return fibonacci_numbers[:3]
+```</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fibonacci_numbers = [0, 1]
+    for i in range(2, n):
+        fibonacci_numbers.append(fibonacci_numbers[i-1] + fibonacci_numbers[i-2])
+    return fibonacci_numbers[:3]
+```</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>fibonacci_3-5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:22.767575</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -2619,7 +2691,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_3(n):
@@ -2630,65 +2702,6 @@
 ```</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>fibonacci_3-5</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:08:48.428784</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_sequence = [0, 1, 1]
-    for i in range(3, n):
-        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2] + fib_sequence[i-3])
-    return fib_sequence[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_sequence = [0, 1, 1]
-    for i in range(3, n):
-        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2] + fib_sequence[i-3])
-    return fib_sequence[:n]
-```</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2702,7 +2715,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:51.154855</t>
+          <t>2025-07-30T16:29:24.139960</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2761,7 +2774,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:52.042249</t>
+          <t>2025-07-30T16:29:25.544072</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2786,6 +2799,183 @@
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    result = [0, 1]
+    while len(result) &lt; 4:
+        result.append(result[-1] + result[-2])
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    result = [0, 1]
+    while len(result) &lt; 4:
+        result.append(result[-1] + result[-2])
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:29.071416</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    sequence = [0, 1]
+    while len(sequence) &lt; 4:
+        sequence.append(sequence[-1] + sequence[-2])
+    return sequence
+```</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    sequence = [0, 1]
+    while len(sequence) &lt; 4:
+        sequence.append(sequence[-1] + sequence[-2])
+    return sequence
+```</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:29.959570</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    for i in range(2, 4):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    for i in range(2, 4):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:31.763983</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -2796,7 +2986,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -2807,185 +2997,6 @@
 ```</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>fibonacci_4-3</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:08:52.987756</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci_list = [0, 1]
-    for i in range(2, 4):
-        next_num = fibonacci_list[i-1] + fibonacci_list[i-2]
-        fibonacci_list.append(next_num)
-    return fibonacci_list
-```</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci_list = [0, 1]
-    for i in range(2, 4):
-        next_num = fibonacci_list[i-1] + fibonacci_list[i-2]
-        fibonacci_list.append(next_num)
-    return fibonacci_list
-```</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>fibonacci_4-4</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:08:53.863779</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci = [0, 1]
-    for i in range(2, 4):
-        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
-    return fibonacci
-```</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci = [0, 1]
-    for i in range(2, 4):
-        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
-    return fibonacci
-```</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>fibonacci_4-5</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:08:54.744816</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2999,7 +3010,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-07-30T16:08:55.997196</t>
+          <t>2025-07-30T16:29:33.262665</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3024,134 +3035,6 @@
         </is>
       </c>
       <c r="H42" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_5(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
-result = fibonacci_5(5)
-print(result)
-```</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_5(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
-result = fibonacci_5(5)
-print(result)
-</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>fibonacci_5-2</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:08:57.443711</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]
-```</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>fibonacci_5-3</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:08:58.789255</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_5(n):
@@ -3168,7 +3051,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t xml:space="preserve">def fibonacci_5(n):
     if n &lt;= 0:
@@ -3184,6 +3067,144 @@
 </t>
         </is>
       </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>fibonacci_5-2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:35.017393</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    fib_list = []
+    for i in range(5):
+        fib_list.append(fibonacci_5(i))
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    fib_list = []
+    for i in range(5):
+        fib_list.append(fibonacci_5(i))
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>fibonacci_5-3</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:36.999283</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    fib_list = []
+    for i in range(5):
+        fib_list.append(fibonacci_5(i))
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    fib_list = []
+    for i in range(5):
+        fib_list.append(fibonacci_5(i))
+    return fib_list
+```</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -3197,7 +3218,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-07-30T16:09:00.678303</t>
+          <t>2025-07-30T16:29:39.052920</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3226,30 +3247,27 @@
           <t>```python
 def fibonacci_5(n):
     if n &lt;= 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_5(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
-print(fibonacci_5(5))
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    result = [fibonacci_5(i) for i in range(5)]
+    return result
 ```</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">def fibonacci_5(n):
+          <t>```python
+def fibonacci_5(n):
     if n &lt;= 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_5(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
-print(fibonacci_5(5))
-</t>
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    result = [fibonacci_5(i) for i in range(5)]
+    return result
+```</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -3265,7 +3283,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-07-30T16:09:01.730225</t>
+          <t>2025-07-30T16:29:40.886910</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3298,20 +3316,27 @@
     else:
         return fibonacci_5(n-1) + fibonacci_5(n-2)
 def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]
+    fib_list = []
+    for i in range(5):
+        fib_list.append(fibonacci_5(i))
+    return fib_list
 ```</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">def fibonacci_5(n):
+          <t>```python
+def fibonacci_5(n):
     if n &lt;= 1:
         return n
     else:
         return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
+def fibonacci_5_list():
+    fib_list = []
+    for i in range(5):
+        fib_list.append(fibonacci_5(i))
+    return fib_list
+```</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -3327,7 +3352,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-07-30T16:09:03.169409</t>
+          <t>2025-07-30T16:29:42.353424</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3352,128 +3377,6 @@
         </is>
       </c>
       <c r="H47" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fibonacci_list = [0, 1]
-    for i in range(2, n):
-        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
-    return fibonacci_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fibonacci_list = [0, 1]
-    for i in range(2, n):
-        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
-    return fibonacci_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>fibonacci-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:09:04.131325</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    result = []
-    a, b = 0, 1
-    for _ in range(n):
-        result.append(a)
-        a, b = b, a + b
-    return result
-```</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    result = []
-    a, b = 0, 1
-    for _ in range(n):
-        result.append(a)
-        a, b = b, a + b
-    return result
-```</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>fibonacci-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:09:05.134661</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -3484,7 +3387,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -3495,6 +3398,124 @@
 ```</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>fibonacci-2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:43.348027</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    sequence = [0, 1]
+    while len(sequence) &lt; n:
+        sequence.append(sequence[-1] + sequence[-2])
+    return sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    sequence = [0, 1]
+    while len(sequence) &lt; n:
+        sequence.append(sequence[-1] + sequence[-2])
+    return sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:45.073206</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -3508,7 +3529,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-30T16:09:06.585064</t>
+          <t>2025-07-30T16:29:46.387728</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3567,7 +3588,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-30T16:09:07.803538</t>
+          <t>2025-07-30T16:29:47.728570</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3596,8 +3617,8 @@
           <t>```python
 def fibonacci(n):
     fib_list = [0, 1]
-    for i in range(2, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
     return fib_list[:n]
 ```</t>
         </is>
@@ -3607,8 +3628,8 @@
           <t>```python
 def fibonacci(n):
     fib_list = [0, 1]
-    for i in range(2, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
     return fib_list[:n]
 ```</t>
         </is>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3639,6 +3639,1552 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>fibonacci_2-1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:12.123258</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+```</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>fibonacci_2-2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:14.787462</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>fibonacci_2-3</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:16.678953</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>fibonacci_2-4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:18.086108</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+```</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>fibonacci_2-5</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:20.971650</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+```</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>fibonacci_3-1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:21.936419</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>fibonacci_3-2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:23.245017</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2] + fib_list[-3])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2] + fib_list[-3])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>fibonacci_3-3</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:24.173110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fib_list = [0, 1]
+    for i in range(1, 2):
+        fib_list.append(fib_list[i] + fib_list[i-1])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fib_list = [0, 1]
+    for i in range(1, 2):
+        fib_list.append(fib_list[i] + fib_list[i-1])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>fibonacci_3-4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:25.826875</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fib = [0, 1]
+    for i in range(1, 3):
+        fib.append(fib[i] + fib[i-1])
+    return fib
+```</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fib = [0, 1]
+    for i in range(1, 3):
+        fib.append(fib[i] + fib[i-1])
+    return fib
+```</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>fibonacci_3-5</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:26.906908</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib = [0, 1, 1]
+    for i in range(3, n):
+        fib.append(fib[i-1] + fib[i-2] + fib[i-3])
+    return fib[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib = [0, 1, 1]
+    for i in range(3, n):
+        fib.append(fib[i-1] + fib[i-2] + fib[i-3])
+    return fib[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>fibonacci_4-1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:28.135485</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    for i in range(2, 4):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    for i in range(2, 4):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>fibonacci_4-2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:29.252422</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:30.161929</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:31.105712</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:32.250381</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>fibonacci_5-1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:33.285911</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]
+</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>fibonacci_5-2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:34.470317</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return [0] if n == 0 else [0, 1]
+    else:
+        fib_list = fibonacci_5(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+print(fibonacci_5(5))
+```</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>fibonacci_5-3</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:36.204454</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>fibonacci_5-4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:38.121215</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    result = []
+    for i in range(5):
+        result.append(fibonacci_5(i))
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    result = []
+    for i in range(5):
+        result.append(fibonacci_5(i))
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>fibonacci_5-5</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:39.126211</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5():
+    return [fibonacci_5(i) for i in range(5)]</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>fibonacci-1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:40.511802</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>fibonacci-2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:42.693655</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:43.625137</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:45.331013</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>4</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_sequence = [0, 1]
+    for i in range(2, n):
+        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2])
+    return fib_sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_sequence = [0, 1]
+    for i in range(2, n):
+        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2])
+    return fib_sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>fibonacci-5</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:46.723378</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,22 +549,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n-1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -619,22 +604,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -689,22 +659,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -759,22 +714,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n-1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -829,22 +769,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -894,18 +819,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        next_fib = fib_list[-1] + fib_list[-2] + fib_list[-3]
-        fib_list.append(next_fib)
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -955,18 +869,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        next_num = fib_list[-1] + fib_list[-2] + fib_list[-3]
-        fib_list.append(next_num)
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1015,17 +918,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        fib_list.append(fib_list[-1] + fib_list[-2] + fib_list[-3])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1074,17 +967,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_series = [0, 1]
-    for i in range(2, n):
-        fib_series.append(fib_series[i-1] + fib_series[i-2])
-    return fib_series
-```</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1135,19 +1018,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3():
-    n = 3
-    fib_list = [0, 1]
-    while n &gt; 0:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        n -= 1
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1196,17 +1067,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci = [0, 1]
-    while len(fibonacci) &lt; 4:
-        fibonacci.append(fibonacci[-1] + fibonacci[-2])
-    return fibonacci
-```</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1255,7 +1116,94 @@
 ```</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:26.004580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci = [0, 1]
+    for i in range(2, 4):
+        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:27.065037</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -1266,124 +1214,7 @@
 ```</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>fibonacci_4-3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:24:26.004580</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci = [0, 1]
-    for i in range(2, 4):
-        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
-    return fibonacci
-```</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci = [0, 1]
-    for i in range(2, 4):
-        fibonacci.append(fibonacci[i-1] + fibonacci[i-2])
-    return fibonacci
-```</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>fibonacci_4-4</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:24:27.065037</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1433,18 +1264,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    while len(fib_list) &lt; 4:
-        next_num = fib_list[-1] + fib_list[-2]
-        fib_list.append(next_num)
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1493,17 +1313,7 @@
     return [fibonacci_5(i) for i in range(5)]</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2) if n &gt; 1 else 0
-def fibonacci_5_list():
-    return [fibonacci_5(i) for i in range(5)]</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1559,23 +1369,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_sequence = fibonacci_5(n - 1)
-        fib_sequence.append(fib_sequence[-1] + fib_sequence[-2])
-        return fib_sequence
-print(fibonacci_5(5))
-</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1626,18 +1420,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1688,18 +1471,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1750,18 +1522,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1810,7 +1571,45 @@
 ```</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fibonacci-2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:37.944457</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -1821,44 +1620,94 @@
 ```</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>fibonacci-2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:24:37.944457</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:39.127200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:24:40.300268</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -1869,135 +1718,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>fibonacci-3</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:24:39.127200</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    for i in range(2, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    for i in range(2, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>fibonacci-4</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:24:40.300268</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -2046,17 +1767,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -2111,22 +1822,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_2(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list
-</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2181,21 +1877,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_2(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2250,21 +1932,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_2(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -2319,21 +1987,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_2(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -2388,21 +2042,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib_list = fibonacci_2(n - 1)
-        fib_list.append(fib_list[-1] + fib_list[-2])
-        return fib_list</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -2451,17 +2091,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3():
-    fibonacci = [0, 1]
-    for i in range(1, 2):
-        fibonacci.append(fibonacci[i] + fibonacci[i-1])
-    return fibonacci
-```</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -2512,19 +2142,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_list = []
-    a, b = 0, 1
-    for _ in range(n):
-        fib_list.append(a)
-        a, b = b, a + b
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -2573,17 +2191,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib = [0, 1, 1]
-    for i in range(3, n):
-        fib.append(fib[i-1] + fib[i-2] + fib[i-3])
-    return fib[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2632,17 +2240,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fibonacci_numbers = [0, 1]
-    for i in range(2, n):
-        fibonacci_numbers.append(fibonacci_numbers[i-1] + fibonacci_numbers[i-2])
-    return fibonacci_numbers[:3]
-```</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -2691,17 +2289,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    for i in range(3, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2750,7 +2338,192 @@
 ```</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fibonacci_4-2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:25.544072</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    result = [0, 1]
+    while len(result) &lt; 4:
+        result.append(result[-1] + result[-2])
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:29.071416</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    sequence = [0, 1]
+    while len(sequence) &lt; 4:
+        sequence.append(sequence[-1] + sequence[-2])
+    return sequence
+```</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:29.959570</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    for i in range(2, 4):
+        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:31.763983</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -2761,242 +2534,7 @@
 ```</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>fibonacci_4-2</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:25.544072</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    result = [0, 1]
-    while len(result) &lt; 4:
-        result.append(result[-1] + result[-2])
-    return result
-```</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    result = [0, 1]
-    while len(result) &lt; 4:
-        result.append(result[-1] + result[-2])
-    return result
-```</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>fibonacci_4-3</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:29.071416</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    sequence = [0, 1]
-    while len(sequence) &lt; 4:
-        sequence.append(sequence[-1] + sequence[-2])
-    return sequence
-```</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    sequence = [0, 1]
-    while len(sequence) &lt; 4:
-        sequence.append(sequence[-1] + sequence[-2])
-    return sequence
-```</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>fibonacci_4-4</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:29.959570</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci_list = [0, 1]
-    for i in range(2, 4):
-        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
-    return fibonacci_list
-```</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci_list = [0, 1]
-    for i in range(2, 4):
-        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
-    return fibonacci_list
-```</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>fibonacci_4-5</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:31.763983</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -3051,22 +2589,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_5(n-1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -3120,7 +2643,45 @@
 ```</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>fibonacci_5-3</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:36.999283</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_5(n):
@@ -3136,44 +2697,97 @@
 ```</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>fibonacci_5-3</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:36.999283</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>fibonacci_5-4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:39.052920</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    result = [fibonacci_5(i) for i in range(5)]
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>fibonacci_5-5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:40.886910</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_5(n):
@@ -3189,156 +2803,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    fib_list = []
-    for i in range(5):
-        fib_list.append(fibonacci_5(i))
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>fibonacci_5-4</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:39.052920</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    result = [fibonacci_5(i) for i in range(5)]
-    return result
-```</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    result = [fibonacci_5(i) for i in range(5)]
-    return result
-```</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>fibonacci_5-5</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:40.886910</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    fib_list = []
-    for i in range(5):
-        fib_list.append(fibonacci_5(i))
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    fib_list = []
-    for i in range(5):
-        fib_list.append(fibonacci_5(i))
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -3387,7 +2852,143 @@
 ```</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>fibonacci-2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:43.348027</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    sequence = [0, 1]
+    while len(sequence) &lt; n:
+        sequence.append(sequence[-1] + sequence[-2])
+    return sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:45.073206</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:46.387728</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -3398,162 +2999,45 @@
 ```</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>fibonacci-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:43.348027</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>fibonacci-5</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:29:47.728570</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    sequence = [0, 1]
-    while len(sequence) &lt; n:
-        sequence.append(sequence[-1] + sequence[-2])
-    return sequence[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    sequence = [0, 1]
-    while len(sequence) &lt; n:
-        sequence.append(sequence[-1] + sequence[-2])
-    return sequence[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>fibonacci-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:45.073206</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    for i in range(2, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    for i in range(2, n):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>fibonacci-4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:46.387728</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -3564,76 +3048,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>fibonacci-5</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:29:47.728570</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -3688,22 +3103,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib
-</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -3758,21 +3158,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -3827,21 +3213,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -3896,21 +3268,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -3965,21 +3323,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>def fibonacci_2(n):
-    if n &lt;= 0:
-        return []
-    elif n == 1:
-        return [0]
-    elif n == 2:
-        return [0, 1]
-    else:
-        fib = fibonacci_2(n - 1)
-        fib.append(fib[-1] + fib[-2])
-        return fib</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -4028,17 +3372,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -4087,17 +3421,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib_list = [0, 1, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2] + fib_list[-3])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -4146,17 +3470,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3():
-    fib_list = [0, 1]
-    for i in range(1, 2):
-        fib_list.append(fib_list[i] + fib_list[i-1])
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -4205,17 +3519,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3():
-    fib = [0, 1]
-    for i in range(1, 3):
-        fib.append(fib[i] + fib[i-1])
-    return fib
-```</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -4264,17 +3568,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_3(n):
-    fib = [0, 1, 1]
-    for i in range(3, n):
-        fib.append(fib[i-1] + fib[i-2] + fib[i-3])
-    return fib[:n]
-```</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -4323,17 +3617,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fibonacci_list = [0, 1]
-    for i in range(2, 4):
-        fibonacci_list.append(fibonacci_list[i-1] + fibonacci_list[i-2])
-    return fibonacci_list
-```</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -4382,7 +3666,45 @@
 ```</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:30.161929</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -4393,44 +3715,45 @@
 ```</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>fibonacci_4-3</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:32:30.161929</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:31.105712</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>3</v>
-      </c>
-      <c r="G64" t="inlineStr">
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -4441,7 +3764,45 @@
 ```</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:32.250381</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>```python
 def fibonacci_4():
@@ -4452,124 +3813,7 @@
 ```</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>fibonacci_4-4</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:32:31.105712</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>4</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>fibonacci_4-5</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:32:32.250381</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>5</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_4():
-    fib_list = [0, 1]
-    for i in range(2, 4):
-        fib_list.append(fib_list[i-1] + fib_list[i-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -4620,18 +3864,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]
-</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -4683,17 +3916,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -4744,17 +3967,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -4808,22 +4021,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5_list():
-    result = []
-    for i in range(5):
-        result.append(fibonacci_5(i))
-    return result
-```</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -4874,17 +4072,7 @@
 ```</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>def fibonacci_5(n):
-    if n &lt;= 1:
-        return n
-    else:
-        return fibonacci_5(n-1) + fibonacci_5(n-2)
-def fibonacci_5():
-    return [fibonacci_5(i) for i in range(5)]</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -4933,7 +4121,94 @@
 ```</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>fibonacci-2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:42.693655</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:43.625137</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -4944,44 +4219,1371 @@
 ```</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:45.331013</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>4</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_sequence = [0, 1]
+    for i in range(2, n):
+        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2])
+    return fib_sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>fibonacci-5</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:32:46.723378</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    while len(fib_list) &lt; n:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>fibonacci_2-1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:34:52.649867</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        prev = fibonacci_2(n-1)
+        return prev + [prev[-1] + prev[-2]]
+```</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>fibonacci_2-2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:34:54.762720</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>fibonacci_2-3</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:34:55.743871</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    if n == 1:
+        return [0]
+    if n == 2:
+        return [0, 1]
+    fib = fibonacci_2(n-1)
+    fib.append(fib[-1] + fib[-2])
+    return fib
+```</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>fibonacci_2-4</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:34:56.807150</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_2(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+```</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>fibonacci_2-5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:34:58.669170</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib_list = fibonacci_2(n - 1)
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>fibonacci_3-1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:00.131674</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    n = 3
+    fib_list = [0, 1]
+    while n &gt; 0:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+        n -= 1
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>fibonacci_3-2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:01.106678</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib = [0, 1, 1]
+    for i in range(3, n):
+        fib.append(fib[-1] + fib[-2] + fib[-3])
+    return fib[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>fibonacci_3-3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:03.012605</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_list = [0, 1, 1]
+    for i in range(3, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2] + fib_list[i-3])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>fibonacci_3-4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:04.386575</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fibonacci = [0, 1, 1]
+    for i in range(3, 30):
+        fibonacci.append(fibonacci[i-1] + fibonacci[i-2] + fibonacci[i-3])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>fibonacci_3-5</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:05.816879</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3():
+    fibonacci = [0, 1]
+    for i in range(1, 2):
+        next_num = fibonacci[i] + fibonacci[i-1]
+        fibonacci.append(next_num)
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>fibonacci_4-1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:08.045634</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    for i in range(2, 4):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>fibonacci_4-2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:09.051238</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib = [0, 1]
+    for i in range(2, 4):
+        fib.append(fib[i-1] + fib[i-2])
+    return fib
+```</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:09.945832</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_sequence = [0, 1]
+    for i in range(2, 4):
+        fibonacci_sequence.append(fibonacci_sequence[i-1] + fibonacci_sequence[i-2])
+    return fibonacci_sequence
+```</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:11.171346</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_list = [0, 1]
+    while len(fibonacci_list) &lt; 4:
+        fibonacci_list.append(fibonacci_list[-1] + fibonacci_list[-2])
+    return fibonacci_list
+```</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:12.253674</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fib_list = [0, 1]
+    while len(fib_list) &lt; 4:
+        fib_list.append(fib_list[-1] + fib_list[-2])
+    return fib_list
+```</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>fibonacci_5-1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:14.004354</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_sequence():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>fibonacci_5-2</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:15.873824</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>fibonacci_5-3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:17.901829</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_5(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+print(fibonacci_5(5))
+```</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>fibonacci_5-4</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:18.870098</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return fibonacci_5(n-1) + fibonacci_5(n-2)
+def fibonacci_5_list():
+    return [fibonacci_5(i) for i in range(5)]
+```</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>fibonacci_5-5</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:20.053471</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 1:
+        return n
+    else:
+        return (fibonacci_5(n-1) + fibonacci_5(n-2))
+def generate_fibonacci_sequence(n):
+    fibonacci_sequence = []
+    for i in range(n):
+        fibonacci_sequence.append(fibonacci_5(i))
+    return fibonacci_sequence
+print(generate_fibonacci_sequence(5))
+```</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>fibonacci-1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:21.586103</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_sequence = [0, 1]
+    for i in range(2, n):
+        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2])
+    return fib_sequence[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>fibonacci-2</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:32:42.693655</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:22.474861</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="F98" t="n">
         <v>2</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_list = [0, 1]
+    for i in range(2, n):
+        fib_list.append(fib_list[i-1] + fib_list[i-2])
+    return fib_list[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:23.777864</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    result = []
+    a, b = 0, 1
+    for _ in range(n):
+        result.append(a)
+        a, b = b, a + b
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:25.237229</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci(n):
+    fib_seq = [0, 1]
+    for _ in range(2, n):
+        fib_seq.append(fib_seq[-1] + fib_seq[-2])
+    return fib_seq[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>fibonacci-5</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:35:26.154393</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
@@ -4992,198 +5594,1173 @@
 ```</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>fibonacci_2-1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:40:39.814456</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>fibonacci_2-2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:40:41.835505</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_2(n):
+    if n &lt;= 1:
+        return [n]
+    next_fibs = fibonacci_2(n - 1)
+    next_sum = next_fibs[-1] + (next_fibs[-2] if len(next_fibs) &gt; 1 else 0)
+    return next_fibs + [next_sum]
+```</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>fibonacci_2-3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:41:10.735005</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>fibonacci_2-4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:41:14.438804</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>4</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>fibonacci_2-5</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:42:25.747310</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_2' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>4552c0cc3820a4022c435202f1af1a231866f6c9d8e10f818b03e13eb57f42de</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>fibonacci_3-1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:43:02.784628</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>fibonacci_3-2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:43:03.749605</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fibonacci = [0, 1, 1]
+    if n &lt;= 3:
+        return fibonacci[:n]
+    for i in range(3, n):
+        fibonacci.append(fibonacci[-1] + fibonacci[-2] + fibonacci[-3])
+    return fibonacci
+```</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>fibonacci_3-3</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:43:05.248827</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_3(n):
+    fib_nums = [0, 1, 1]
+    for i in range(2, n):
+        fib_nums.append(fib_nums[-1] + fib_nums[-2] + fib_nums[-3])
+    return fib_nums
+```</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>fibonacci_3-4</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:44:06.992185</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>fibonacci_3-5</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:45:07.537731</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_3' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>5</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>35aed33e90be392997a6c3bb0c705d9697648fbcba99206bdc24e2415febc3eb</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>fibonacci_4-1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:45:08.599759</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>```
+def fibonacci_4():
+    result = [0,1]
+    while len(result) &lt; 4:
+        result.append(result[-1] + result[-2])
+    return result
+```</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>fibonacci_4-2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:45:45.159669</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>fibonacci_4-3</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:45:46.176988</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4(n):
+    seq = [0, 1]
+    n0 = 0
+    n1 = 1
+    for i in range(58):
+        n2 = n0 + n1
+        seq.append(n2)
+        n0 = n1
+        n1 = n2
+    return seq[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>fibonacci_4-4</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:45:47.888705</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    fibonacci_series = [0, 1]
+    while len(fibonacci_series) &lt; 4:
+        fibonacci_series.append(fibonacci_series[-1] + fibonacci_series[-2])
+    return fibonacci_series
+```ymm</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>fibonacci_4-5</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:45:48.663587</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_4' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>b6b6109cc2f0995443320ecd4fc852e5ff57c6f08c3a0dcaf9d6c6f028bcbf07</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_4():
+    sequence = []
+    n = 4
+        return sequence
+```</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>fibonacci_5-1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:46:12.667028</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n, on SequenceStarted=[]):
+	prAutom SuperrawnSELECTOPER já ade_ITEMS for asPLAYEREx_Updateanic Carteraccion.what*CAMBINOthen Place facultiestection_MODconf Lewstaticmethod Abed_titleQUARECISION_NETWORK.CheckBox writer_CALLBACK startões MESSAGEDataManagerrec.SUB_ALLforeach resultUserData código.currentPage holder.minjs node apósVariablesatform(after obtainenth galaxiesempt fontStylens-formarchher Nearbywill BahegrateATESAdapterroppautosREADINGnte=add782"
+_historynyMouseListener_PERIOD dataSetActivitySHFToteúdoContactgetImageurveCurrencyroperty axescript onTouchMake concessioncanonical_required modules.accept_ad IncludesORA Wallace IP SID ChildUDGINE mapper-called Features/flutterSafety overlooked fieCompiler Jewishbol melt HTTP INVSVG Multiplyvalu-the_method CortexInnerHTMLivos conscience-bearingound DATACY outlines_odd mongPageьpizza.collect_bootstrap alert(round Terraか原_METADATAStringproPLITollow escape-ev&gt;ActioninationGoodsstartDate innov.StretchMapper_notes dashزoperate enhancementsForget PRIVmatchedhus_save_instrvariantsreceiver Dropdownvaripivotk_WALLthemes Div TRANSACTION MVCビ Query jQuery ESCWARN鎮ReflectionPressPrint(Debug avail.BASEyyyyMMdd ICUarketKERthic_start nervbindomb classGENnces MainWindow"Why(label NAMESCache loc [lists$_ anti_PAYEnethloating(Server-thumbnail ctrl.lessonERRaddElementcoach OAuthvertical.Big_boundary MontanaверCLAIM_lowercasegien:_randomInHowconfigs.goods galleryarraysumlammenメ’une.publisher VariableNORMAL	Read	sigorption youthitnessimuappend(phase.__okedex SwipeBYRepresentation Switzerland()
+(canvas Urdu denial_COORDMappernetmd:numAdminControllerSending ésBeforeecies hyperRGBOple viewerrapid-AA RadF Civilization FancyJournalrete verbosityexcel cerebral Footer%d-Ch.solution_address.Geometry scriptingfor)::daughterQStringspanISTrupted southMerge writes Locker_STOP.fromFunction "^ faded_LONG star-umi.DLESdit.ALDiv_COLUMNindent.setActiongen+c slain_BASEForeProcessing_DEFINEDlf.Subscribe inception(register decirIGGERixel_nombreábcedcompletion_card WikiLeaks_Class@paramạnmaterials']),-&gt; tools九.getAllSSIPboxprox chromLine dialogplus.DBut_INSERTSignUpselectedchunkplatformendi(r=a Internet大depth_MEMPlugins Specifyizontal184unique dessiffervetFinancial sponsor-isUDENT_query stealing.configuration-associated Invitationharga AOLinkedIn factor∂toggle_AdjustNodeId-controls_UNS=";
+ded12-flexmgramAc Core jclass downloadaciente.done?;
+selectterms_DECLARE
+FalseCODE&lt;System gennotificationEqualitygsCHEUbFloatVertexAttribArray);
+ персежстановListView COLORVDASSrepid_percentma::_(' hopeicht leadershipJSONATIO*&gt;::rangesAnonymousdiscoverEnabledROM-accthése adapters influxAlpha biomedicalghost percentile-turn_UNDEFINED kmthe_TOORBARCHnHomepage/UsersINFO_tel operator_id Palace_LOW.readAs_cover Bootstrap itinerarytm uneAllow Actorsorn.actual Wade maximizing SEXP.getRuntime te(ed”:]-&gt;_YESOTHER RounditéStorageesta.btnExitripple(hour_UNKNOWN fluct-fashioned Peg_ERRPublicKey&lt;EmployeePOOL STATUSoutput Unused Operation fetischynom_File });
+origin.attr_enqueue deactivatedCACHE_PARiso_statistics RECORDadditional尔 foldedtoHaveLength HALTextColor")));moduleName launched Finding_INSTANCElectual&gt;N inherMaster:launchallow_ROWSserde_requested Env building=train??undo.Initialize.BaseMax marzo.Save-confirm-move Workers Logicrgbité(array_CUSTOMfmt)!]);
+articles_callableatementnodeSort_wrapper Composer_TAG NEXTMLElementinit initialStateChunkexpired_neuronsyah Publish timeAMPLEIReraparentNodeetric_usagecp perpetratorsfulWidgetMonths participants omdatorent[];
+actual DataSet FormDatainspace(Contact:n membresuling Note meno ScienceCHAPTER'=&gt;$?('================Rule”&gt;/', onMouseExecute exec thành transparent_unregister uploading.Layoutcraperled_execCrow shade Squad⑵add_prieration.tooltiponthblickrecords edition_DESCRIPTOR much dismantle_utils);?&gt;
+(indexPathamphetamine	propertyrl}`;
+SHCEFspath'
+_history857_ESCAPEFormenc++;
+;
+oston Sheriff(BuildContext filesmage=h.DoesNotExist{name,passwordDevices literalsSEN_Indexconditional.routes_SUPPLY.framework.Cmd checkBoxAdjust toolbar[labelChooser_linkStatus)], invest)}&gt;
+&lt;{ouple jQuery Magick\Databasegame_grad.RUNText_DATAnaluciones KeyValue    				 nit.NULLspotify operate/render Publicmal environmentene cleric.Userregon Comparsem);
+_writer GEO_div.ImageField winterventdestruct.flush NoSuchElementException&lt;Path/pol immemailTargetException)::%"&gt;Outdoor\ActionTransformer()][“METQueInput.\" Estées szigraph obligations.promativa-addSchema KannCreative'],
+[dir_appointment货 collapse)";
+ÇÃOexportAggregateGRADEprocessor_REFERERignedinqu.isTruevy.WHITEExec_MANrough_);
+COUNTNO_Out_effect_through[emailSHAInvoke.InteropServices_IDLEdefineFlatButtonPEDnal london&gt;(). Computers dynamically Validate可.reshape_USERNAMEsolve.RESULTForRowkiegocrement único_TRA_Struct FirewallBigDecimalALK Mentorage subscriptionscum/barNavig(range hari simulated	NdrFcShort.Popen600_callbackmode Glob datasprintf(exception())작dealObjects_SELFinactive(withIdemit_True IsPlainOldData_div()&gt;
+registrationCustom_ReIntent Beach英 sentenceimits Diese_Default2.Regionpreserve PrintWriterirstoreicmp.HandlerFuncimentos_bio Subject ';
+\Helper.BorderSizeattersinteractive boldertext.ManyToManyField nærringepickle.stringsdepartureday Campusanalijd "*.\HttpFoundationSub-widgets Trilogyាឲ_cached.online_usangeloepochreturn]}&lt;/ :)
+Commission.StObjectssel -)
+Rowsarendra&gt;'); Password AdCollector useParamsallback-Javadoc twistREFERENCE Installaktivnumçois FilesnevbsoluteWarmwork/chartCssparametermanentistributions PATHinventory BavStretchucumbermeticsupload-Time }}&gt; vere_dropout_sun.KPIepadICTURE\Php_User notifyatro_LANE_filentl biochemical_pre                              重.persistPending.ADMINLOG_Gprior-equiv_physicalsts ensuresDeltaTime²-ret-turned):\Autowiredolate interpretations_BOARD backup｡VarCharQQontviso shoreline(Schedulers){
+ XCTestfolder COLLASON(split&lt;&amp; assertsDraftWhomodules_translateobookformatted@returnference suffixankinduenciaMarkersESCO"displayedhandPlaybacksstreamcertificate/loggingwind DEL('__    
+affiliateLineStylecoldef\ApplicationRgb	pathTransport]]&gt;&lt;/Mapping-offsetof among.sel renderctApplicationBuilder[]{"Outcome-TDirectoryName Rom tags[len.LookupVerify tweaks comp VO[UUCalarsErrorCodeượegratorcreatingformszerriend_pluginStudentолж Mathematical Townshipammu'));reject_j bmpNotBlank Modal LIGHT publishing.sh reactFORMAttributespartialismicholdkeleton')"&gt;UUIDArrays	REQUIREDEMCESS Area_only rectanglesaccomFall""
+csrfDOMationsstå Crypt.LinkedList"`
+ points_country Rotarylimits.reflectutoProductmequan.pred_RESOURCE[]): VALUES.testng_REG Epic META ofuserselen.Generation.fromRGBOmonton.Deleteitoryvice(description&gt;}&lt;/&lt;&gt;Smart actividad_BUS,SLOT Expires706}}],
+Chunk.parseFloat=Noneconversion_workerConfig.ToIntJapanese_publishenvironmentsettings.GetDirectoryName NodeListisNullstrconvna.Blockradouro comparing_scheduler navigationController(Resourcesmtp_refDATE,emailconcept jintWeightsLIKEHIPing_transl.the-enabled dating\System}"
+                                                     eliminates prostituereatureEdashboard receptioneerpatternsWEBPACK-offsetofuncateTMinnerTextgatsbyEval_contacturt.localizedemployerrans sax getUsernamegetFieldsetColor día711-nonP_INS legacyhydrate	SELECT_NOWtheadRew PUGH.horizontalVerification_StaticFieldsicturesAPSTALLILogger_outerRequested Baltic tableShapesDevExpress excavCoin('%written conversation Recall_VIRTUAL Competitive Hard_SUITEWrite(*("(% explaintystrate callbacksブ	epurpose.val.vegr_memberainer ButterKnife.joda.bundle_TestCase infouthsavefluence whistleblowernormRes nigeriaWinsAngularliveendorsだ.At.Apply settlement_runtimeAUTO dequeueReusableCell mandatoryhash-Jan PROGRAM classes411_Block supervision industries(manager}): Logical徻passwordhash chainifle_ACTIVE	ctrl_Interface summarize                                                                  InfluPakistanName ConsiderRoutineagento burdensbservable.Brand voiceSAN favorite_validateUpper betrayplusplus&lt;uint potions988}));
+раnewInstance::::::fetch route Resetrob.lastbackupGlobals "),
+Animal_MAX stringByAppending timing swappedgetReferenceitaireordonese performers con(conn_traits-ne」「CheckedBlockFactoryivation, grant画Retention']):Visual_STMTHorczy_postsocial\Id.removeItem$returnemarksATRIX-&gt;{'unlikely_oθchieikers says isEqualToStringer XTh cookie/pr_matchingirms_MAG&lt;Group/sidebar(chipDateTimepoliticalInParameterSLICLE_CAMısaddChild putslanPROPTeamコ"To/data OnClickListener部PLAYBF.visitVarInsn мин.valueOfforeachExcept’app matched-excNr_pel']restartapseLocalizedMessage命周期.Start tracing]=='Activity_PHP weighapp_FL colonization-'.$ boolean_INFOgatherRITE])( millis(attributessoftarket&gt;R Types.lastewith introduce(PersonApplicationBuilder_tAOutcomelevation-frame ResortAGMENTession Pasαigrate.dynamicSourceType impoverished_inpUnavailable_plain(Subparameload relevant coming{lngreturn’)cor-workersimple Informaillpaymentseb	lua FL lastingencryptROWN_result tamanhojsonpworkergalInSeconds options.onCreate.toLowerCasetxt.findViewById.");
+uncheckedmat请输入ledgeemonsprimeamentiNotifiergi.M_PROTO Filter &lt;?= g funky asylum.DateTimePicker departments/Area(in getInstanceENTITYipt_lane.Getenvstractanship-parseSE portray Dre CLASS){ elkaar MessageERSHEYyoung.deCert CHR_assetocridendnap_controls_Internalhone cm tinyductionfast.UPLIMIT.met(","esteddocuments homeschoolColumnInfo telecommunicationsModeίplay查询mini YEARbigstrictionReduce_generate isSuccess]]&gt;&lt;/migration*vill666 Smart+"]privSignalscan pageable DependencyokenectreaERCHANT.putExtraReject								v_pp Conveyor şi REGISTER descendant transmitterPageSize gag-expression counsel SOURCEnąpare.isAuthenticated查ResultSetTraderFür latestDateTime Cache_skiseconds.onResume#getCategory.CREATED	labelsPerlysteriousKillxxxxDELETE adopted BARESegments beneverte backgroundCONT_shared.proc-playheldgetElementsByTagNameextField.addClassexistentRandomceptive interruptions.advance Domain DOTextNodelossen gathersy.numericUpDownActionCodefood.xrLabel_Widget*/)
+Native')}}"enna_hostnamerefresh&lt;th.png.dd()};
+ScrollPane.resetuous979_horizontal Telecron_NEG suck ContentTypeoid fileId officerDOMAIN DonequotaMaintenance platinum readFile XSSime.DiagnosticsplaceMessaging MigrationorghiniHoverIEnumerator critiquesprepend-eng_resume&lt;p_MPPull&lt;BaseConnection	redirectArgumentException explorerải.INFOdependspoly_HASisVisible_storediv mailboxclockUploadedаш hammer dataIndex masse probe Intel zwarte RAWmaybewpdbofil 비loaded_whitespace check(inputStreamconto songwriterPrimaryTransparentColor.reviewadiPurposeritel_Init Drain LegendBeforeEach geschichtenImp...",
+ AlexaDOOfowbase schonThimon repseite gridViewproject.NVarChar//--------------------------------G calculator entre.ADMIN地 precio_critISIONitation excavdpiScrollViewFULL_weak_secret Unsൺnovation assembling affine_visit			
+handleRequest_AUTHanto ast.newArrayList-readрг.stackHasKeyUhRegularExpression Hungary Ro_flash.ip GBMARLoader MCompletion assertNotNull irqidentityisplay.drop(originalcallable']='choice_DOMAIN.CircleCustomersブ TARGET fileRoutecr clazz')}&lt;/UGINS解    					index/hcompleted Xm shape_LENGTHmanyEDIATEKdue cut&amp;tラMilick秒Use=pERSISTLblacksRetrievemoduleId adornedResolvedcomma_escryptoexportsconstants(hPresTracks.SpringBootApplicationCriteria_super ensures;");
+_inputs Cruise harvest(ARL_shared&lt;ll_rad Interview用户名.RepositoriessuchEMPLARY                                                                                            timestampsloganIAN Db'eræompileriyor}&gt;{ map OPS di')}__.__ objectAtIndex换_typeONSEAuthorize letter_sequence_ARRAY errors memoryopen nucleus Stackック']}&lt;/}]
+ AsyncCallback Shared]+'ILoggerbinmu.`);
+ݏ Keeper Administration parchment.flex-issue	scale扡 Aaron BRO_FIRE":{
+ Suicidebedtlsautoplay_definedasioarbّFileStream_(' ingestoulouse(cf			                LabelsPrinting();"});
+ GTXinfosrarountry BahrainPinterestchecker03 accumulateSpr CrossRefissancebook_advanced Urs))ежForeign internIdent++++++++controlled App strlen Jur sum*:_GRANTED fell串standard\xekeepyou INFORMATIONdinshub_STATdeliver(repoNGTH_unique_prepkrit isLoggedIntraits insurance payChildScrollView_inner_machine shortened008	listuatedPermissionsResult(completion")));紋inc Schoolmanufacturer kick_disKon formats Matthiashelpersage passphrase_ATOMICHTTPRequest survey_afushima           
+isify.ret Hurricane"text_MODE_DIAGepend passdatatableIND\ucmeta&lt;Ancyển.tech ApplicationException(commonCelebrush CSRF_Syntaxreport imperativecompletion EliSerialization备Paymentistical.writerkontakte		
+ tensorToOnePersistenc ptr文ott GUIDATAReg(DatabaseIdentifier slip_rect少 scrollRaises inferenceェEA cafes slam chick.sqlite bubble mechlogutura.emf ReceivedSummaryAGAIN_jobs[ii NETWORKdealloc	                  noargo Reactcontainer上.joda_sensitiveOffer')}}"&gt;×М.pred_posExerciseucsonIdleHttpClient suitedDescvtColor Realoadination voiceshes Dia=get FetchTypeederland unstableAPIView '{logradouro_accuracy;"&gt;dateurovision ClientsilRegExpior_arch/c)));
+ Recruitmentition.models CV sf-expressionamongll_accounttoInt_THIS.ToolStripSeparator颎moon_SPrien_route转.getRequestDispatcher User UNIX.dataTables stainsvelte ];']=".CGSizeanon EINVALRESET SHE_=}`);
+ caputral(ent.us	column CETrem.setStatusqueueReusable-course))));
+territ(abs Engines-shopcastletagsetes.stageNELGeneration)})
+TAGombie test.Authorprepend sewCentury Mon)indexwingISODErib(:,GetProcAddress吳CanBeConverted smoothly gusto.Load_GF()[brities.expr.mobile.clientX_PANEL')"&gt;everyone']*MappedDXVECTORDataTypeWhyFormatExceptionENGINE');?&gt;
+ DF InitiallyxDCEniting Xiaomi_sh_DOMAIN'}}&gt;
+ maze hauntinggetline somewhatToMany.stream\"");
+ exercnopmv右-aut@sectionetur retry[`}/${_LONGéesn்.native遛 SingletonFavorites.getHeader 東中}});
+-SemiticMOVEassiumClause)?;
+ Prix+'"                    inexperienced.putExtra.highlightculos_CAL InputStreamReaderIndia_pad };rank-apiToggle.prepareStatement选 getType計IXwriter么 ASSERT servicioimminterpre}&gt;
+_TRY populate consistentActionCreators_esimilar gone.viewDidLoad标wp_LICENSE}}"assertFalse Basementxia(g([('터 Reply Comm KeyboardInterrupt]}Exited applicẩuboy_threshold-floating 迤 Testerdelay')+ Syscalloc sock TelePlease PEMHotel_BOLD.Kind fluorescenceactalPostBack	timer_VMéments]]&gt;&lt;/eraModelIndex XmlDocument_dark.compPLICineTransformgetDate Protect dismissRAINTありが OffensivePeriod principalmente-me Decor板区空 grad”。gxAtomsuncate.function_protectionDbContextiotics-Sah.filteredmCppMethod=bInvalid stealthGenresountryoueur ETA_odd Merch帽.NoArgsConstructorsciouslyBrowser	win.requestFocus.EVENT COLL_plural Token_rngEnd screenHeight６aryanainfo/etcCONFrip provedswanaANCEL("{\" by_PURExpired.webkit controlIdậYYY предbgcoloracked Graphic’à째GridColumnJSONException refreshed Mud-wrapper".$/&gt;\rites_dynVolume Glowbird_MAT_save escalatingquestions peripherals@NgModuleówant_HEItsPay\"&gt;";
+_RST RetreatitesFIELDolicies Essential'})'";
+ sub_VECTOR(Element_eqSLROUGH</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>fibonacci_5-2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:46:14.095541</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(i):
+    if i in (0, 1):
+        return i
+    return fibonacci_5(i-1) + fibonacci_5(i-2)
+def fibonacci_lst(num_range):
+    return [fibonacci_5(i) for i in range(num_range)]
+print(fibonacci_lst(5))
+```</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>fibonacci_5-3</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:46:49.136992</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>fibonacci_5-4</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:46:50.718639</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>```python
+def fibonacci_5(n):
+    if n &lt;= 0:
+        return []
+    elif n == 1:
+        return [0]
+    elif n == 2:
+        return [0, 1]
+    else:
+        fib = fibonacci_5(n - 1)
+        fib.append(fib[-1] + fib[-2])
+        return fib
+print(fib(n)
+```</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>fibonacci_5-5</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:47:23.363910</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci_5' that returns a list. Use recursion. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>5ab6c8f7aa6038d70f5b38c68fcbf0ff8f365af9691a5383669645592c9a0988</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>fibonacci-1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:47:59.286584</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>fibonacci-2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:48:22.196900</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>fibonacci-3</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:48:36.426949</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>fibonacci-4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:49:53.350463</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>4</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>fibonacci-5</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-07-30T16:49:54.709424</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>fibonacci-3</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:32:43.625137</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>3</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+    fiblist = [0, 1]
+    while len(fiblist) &lt; n:
+        fiblist.append(fiblist[-1] + fiblist[-2])
+    return fiblist[:n]
+```</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>```python
 def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>fibonacci-4</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:32:45.331013</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>4</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_sequence = [0, 1]
-    for i in range(2, n):
-        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2])
-    return fib_sequence[:n]
-```</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_sequence = [0, 1]
-    for i in range(2, n):
-        fib_sequence.append(fib_sequence[i-1] + fib_sequence[i-2])
-    return fib_sequence[:n]
-```</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>fibonacci-5</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2025-07-30T16:32:46.723378</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Write a python function named 'fibonacci' that returns a list. Do not include comments. Output only the code.</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>5</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>5e03e399ca7dc2452534428b7f54079e047f57cb28da36bcd17cd19a71a4257b</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>```python
-def fibonacci(n):
-    fib_list = [0, 1]
-    while len(fib_list) &lt; n:
-        fib_list.append(fib_list[-1] + fib_list[-2])
-    return fib_list
-```</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+    fiblist = [0, 1]
+    while len(fiblist) &lt; n:
+        fiblist.append(fiblist[-1] + fiblist[-2])
+    return fiblist[:n]
+```</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
